--- a/inst/otherFiles/HFC_XLSForm.xlsx
+++ b/inst/otherFiles/HFC_XLSForm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\GitHub\HighFrequencyChecks\inst\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\GitHub\HighFrequencyChecks\inst\otherFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B5A3C0-F5D9-45DE-9BAE-CEF95104E19A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261AD15B-5CB8-4BB2-8A0E-80AE2F153289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19760" xr2:uid="{2D7CC885-6DBB-4B98-A2F9-7768F6E2AF6E}"/>
   </bookViews>
@@ -597,12 +597,12 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.26953125" customWidth="1"/>
     <col min="3" max="3" width="38.90625" bestFit="1" customWidth="1"/>
   </cols>
